--- a/data/trans_dic/P80_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P80_R-Clase-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.01841365725383206</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.01733449740494378</v>
+        <v>0.01733449740494377</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007192517223240979</v>
+        <v>0.007422507289820118</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009419524247547009</v>
+        <v>0.01050078341447714</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01089075332332303</v>
+        <v>0.01006231012535219</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03272518175177781</v>
+        <v>0.03463446325007737</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03279724638232451</v>
+        <v>0.03170555236809462</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02656490265084913</v>
+        <v>0.02712509441496397</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.02710866414639844</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.02178338286060313</v>
+        <v>0.02178338286060312</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007959607213143404</v>
+        <v>0.007472349465545662</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01413008087508786</v>
+        <v>0.01419924194364381</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01313852156931231</v>
+        <v>0.01283454669585738</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03421151339629946</v>
+        <v>0.03418928895044888</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04679829278018709</v>
+        <v>0.04886781632944723</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0336996639112269</v>
+        <v>0.03412645880970532</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.002336323282002842</v>
+        <v>0.002336323282002841</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.01854311500983964</v>
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003964423615192949</v>
+        <v>0.003892934408908917</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002721567233056517</v>
+        <v>0.002229898578820459</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01182962251596488</v>
+        <v>0.01194201481816952</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04950106285824903</v>
+        <v>0.04342885358124191</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01662410419730103</v>
+        <v>0.01611684960183795</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.03021176875163001</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.01443052061523627</v>
+        <v>0.01443052061523626</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.02340400707254301</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02002414386468153</v>
+        <v>0.02038857132859802</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008129289350393516</v>
+        <v>0.008419520816384654</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01624200838546469</v>
+        <v>0.01687647000878523</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04584916812323522</v>
+        <v>0.04492747100465301</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02348702234092289</v>
+        <v>0.02412305819038004</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03188864965809899</v>
+        <v>0.03332915995457466</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.03283778632938077</v>
+        <v>0.03283778632938076</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.0150644579906267</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01800596626439174</v>
+        <v>0.01770352202171097</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.008787328354513407</v>
+        <v>0.009716087981269208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01477046808196439</v>
+        <v>0.01462148941984551</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05865120166230253</v>
+        <v>0.05511793085985388</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02461866978616198</v>
+        <v>0.02376211328324597</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03362364999972181</v>
+        <v>0.0330606143425755</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.007004757549676534</v>
+        <v>0.00719028525069426</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0007321363885150369</v>
+        <v>0.0007296776712397106</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003152868391116429</v>
+        <v>0.002836359651647727</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07346240835726611</v>
+        <v>0.08025373781381077</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.007371780616547601</v>
+        <v>0.006121301972775463</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02199243379490627</v>
+        <v>0.019649903837434</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01733279927047569</v>
+        <v>0.01698609227290427</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01062696574629943</v>
+        <v>0.01050057321436087</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01510606958170325</v>
+        <v>0.01484669907366327</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03023253974271849</v>
+        <v>0.02974595983522054</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01836570781424971</v>
+        <v>0.01795538155645361</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02224778133501181</v>
+        <v>0.02222571181917777</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3952</v>
+        <v>4079</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4593</v>
+        <v>5121</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11295</v>
+        <v>10436</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17982</v>
+        <v>19032</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15994</v>
+        <v>15461</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27552</v>
+        <v>28133</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3832</v>
+        <v>3598</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5973</v>
+        <v>6002</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11880</v>
+        <v>11605</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16472</v>
+        <v>16462</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19782</v>
+        <v>20657</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>30471</v>
+        <v>30857</v>
       </c>
     </row>
     <row r="12">
@@ -1225,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1794</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5579</v>
+        <v>5632</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9281</v>
+        <v>8143</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10957</v>
+        <v>10623</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>22664</v>
+        <v>23077</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6980</v>
+        <v>7230</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>32330</v>
+        <v>33593</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>51894</v>
+        <v>50851</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20168</v>
+        <v>20714</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>63475</v>
+        <v>66342</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10227</v>
+        <v>10055</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7291</v>
+        <v>8062</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20645</v>
+        <v>20436</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>33312</v>
+        <v>31305</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>20427</v>
+        <v>19716</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>46996</v>
+        <v>46209</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1662</v>
+        <v>1706</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3407</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>17427</v>
+        <v>19038</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6217</v>
+        <v>5162</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>23763</v>
+        <v>21232</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>59618</v>
+        <v>58426</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>38571</v>
+        <v>38112</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>106787</v>
+        <v>104954</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>103989</v>
+        <v>102315</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>66659</v>
+        <v>65170</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>157274</v>
+        <v>157117</v>
       </c>
     </row>
     <row r="32">
